--- a/input/DANE/1953.xlsx
+++ b/input/DANE/1953.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josetavera/Documents/HEC_Datos/input/DANE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE03899-49D5-AD4C-A3E4-AB53D0900650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C273AC1A-9FFB-064B-ACEF-843A8866185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13780" xr2:uid="{62736EBB-8A02-3640-B880-9141AD37F2E2}"/>
   </bookViews>
@@ -1392,9 +1392,6 @@
     <t>1.078,434.53</t>
   </si>
   <si>
-    <t>Carnicerías</t>
-  </si>
-  <si>
     <t>90.650.00</t>
   </si>
   <si>
@@ -2386,6 +2383,9 @@
   </si>
   <si>
     <t>Tierralta</t>
+  </si>
+  <si>
+    <t>Carnecerías</t>
   </si>
 </sst>
 </file>
@@ -2757,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808738A6-D4BB-D14D-A12C-D52C354F8A55}">
   <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="K153" sqref="K153"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C2" s="3">
         <v>2003</v>
@@ -2817,7 +2817,7 @@
         <v>2962</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2825,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C3" s="2">
         <v>347</v>
@@ -2851,7 +2851,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C4" s="2">
         <v>470</v>
@@ -2877,7 +2877,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C5" s="2">
         <v>378</v>
@@ -2889,7 +2889,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G5" s="2">
         <v>417</v>
@@ -2903,7 +2903,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C6" s="2">
         <v>342</v>
@@ -2929,7 +2929,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C7" s="2">
         <v>411</v>
@@ -2955,7 +2955,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C8" s="2">
         <v>583</v>
@@ -2981,7 +2981,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C9" s="2">
         <v>858</v>
@@ -3007,7 +3007,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C10" s="2">
         <v>598</v>
@@ -3033,7 +3033,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C11" s="2">
         <v>317</v>
@@ -3059,7 +3059,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C12" s="2">
         <v>641</v>
@@ -3077,7 +3077,7 @@
         <v>734</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3085,7 +3085,7 @@
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C13" s="2">
         <v>431</v>
@@ -3111,7 +3111,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C14" s="2">
         <v>417</v>
@@ -3137,7 +3137,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C15" s="2">
         <v>122</v>
@@ -3163,13 +3163,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C16" s="2">
         <v>830</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E16" s="2">
         <v>119</v>
@@ -3189,7 +3189,7 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C17" s="2">
         <v>652</v>
@@ -3215,7 +3215,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C18" s="2">
         <v>721</v>
@@ -3241,7 +3241,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C19" s="2">
         <v>239</v>
@@ -3267,7 +3267,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C20" s="2">
         <v>772</v>
@@ -3293,7 +3293,7 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C21" s="2">
         <v>722</v>
@@ -3319,7 +3319,7 @@
         <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C22" s="2">
         <v>155</v>
@@ -3345,7 +3345,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C23" s="3">
         <v>1270</v>
@@ -3631,7 +3631,7 @@
         <v>131</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C34" s="3">
         <v>3464</v>
@@ -3657,7 +3657,7 @@
         <v>135</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C35" s="3">
         <v>2838</v>
@@ -3683,7 +3683,7 @@
         <v>139</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C36" s="3">
         <v>2159</v>
@@ -3709,7 +3709,7 @@
         <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C37" s="3">
         <v>1410</v>
@@ -3735,7 +3735,7 @@
         <v>147</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C38" s="3">
         <v>1312</v>
@@ -3761,7 +3761,7 @@
         <v>151</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C39" s="3">
         <v>1041</v>
@@ -3787,7 +3787,7 @@
         <v>155</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C40" s="2">
         <v>555</v>
@@ -3813,7 +3813,7 @@
         <v>159</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C41" s="3">
         <v>1176</v>
@@ -3839,7 +3839,7 @@
         <v>163</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C42" s="2">
         <v>120</v>
@@ -3865,7 +3865,7 @@
         <v>167</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C43" s="3">
         <v>1832</v>
@@ -3891,7 +3891,7 @@
         <v>171</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C44" s="2">
         <v>844</v>
@@ -3909,7 +3909,7 @@
         <v>964</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3917,7 +3917,7 @@
         <v>174</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C45" s="3">
         <v>1564</v>
@@ -3943,7 +3943,7 @@
         <v>178</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C46" s="2">
         <v>827</v>
@@ -3969,7 +3969,7 @@
         <v>182</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C47" s="3">
         <v>1124</v>
@@ -3995,7 +3995,7 @@
         <v>186</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C48" s="3">
         <v>2388</v>
@@ -4021,7 +4021,7 @@
         <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C49" s="2">
         <v>890</v>
@@ -4047,7 +4047,7 @@
         <v>194</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C50" s="3">
         <v>2525</v>
@@ -4073,7 +4073,7 @@
         <v>198</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C51" s="2">
         <v>652</v>
@@ -4099,7 +4099,7 @@
         <v>202</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C52" s="2">
         <v>711</v>
@@ -4125,7 +4125,7 @@
         <v>206</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C53" s="2">
         <v>621</v>
@@ -4151,7 +4151,7 @@
         <v>210</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C54" s="2">
         <v>440</v>
@@ -4169,7 +4169,7 @@
         <v>707</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>213</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C55" s="2">
         <v>977</v>
@@ -4203,7 +4203,7 @@
         <v>217</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C56" s="2">
         <v>171</v>
@@ -4229,7 +4229,7 @@
         <v>221</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C57" s="2">
         <v>529</v>
@@ -4241,13 +4241,13 @@
         <v>227</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G57" s="2">
         <v>756</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>223</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C58" s="2">
         <v>362</v>
@@ -4281,7 +4281,7 @@
         <v>227</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C59" s="2">
         <v>198</v>
@@ -4307,7 +4307,7 @@
         <v>231</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C60" s="3">
         <v>1033</v>
@@ -4333,7 +4333,7 @@
         <v>235</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C61" s="2">
         <v>243</v>
@@ -4359,7 +4359,7 @@
         <v>239</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C62" s="2">
         <v>936</v>
@@ -4385,7 +4385,7 @@
         <v>243</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C63" s="2">
         <v>511</v>
@@ -4403,7 +4403,7 @@
         <v>830</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4411,7 +4411,7 @@
         <v>246</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C64" s="2">
         <v>176</v>
@@ -4423,7 +4423,7 @@
         <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G64" s="2">
         <v>253</v>
@@ -4437,7 +4437,7 @@
         <v>249</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C65" s="3">
         <v>1267</v>
@@ -4463,7 +4463,7 @@
         <v>253</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C66" s="2">
         <v>950</v>
@@ -4489,7 +4489,7 @@
         <v>257</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C67" s="2">
         <v>617</v>
@@ -4507,7 +4507,7 @@
         <v>1005</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4515,13 +4515,13 @@
         <v>260</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C68" s="2">
         <v>438</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E68" s="2">
         <v>146</v>
@@ -4541,7 +4541,7 @@
         <v>263</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C69" s="3">
         <v>2460</v>
@@ -4567,7 +4567,7 @@
         <v>18</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C70" s="2">
         <v>646</v>
@@ -4593,7 +4593,7 @@
         <v>270</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C71" s="2">
         <v>456</v>
@@ -4619,7 +4619,7 @@
         <v>274</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C72" s="2">
         <v>797</v>
@@ -4645,7 +4645,7 @@
         <v>278</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C73" s="2">
         <v>402</v>
@@ -4671,7 +4671,7 @@
         <v>282</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C74" s="2">
         <v>693</v>
@@ -4697,7 +4697,7 @@
         <v>286</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C75" s="2">
         <v>624</v>
@@ -4723,7 +4723,7 @@
         <v>290</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C76" s="2">
         <v>273</v>
@@ -4741,7 +4741,7 @@
         <v>483</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4749,7 +4749,7 @@
         <v>293</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C77" s="2">
         <v>525</v>
@@ -4775,7 +4775,7 @@
         <v>297</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C78" s="3">
         <v>1303</v>
@@ -4801,7 +4801,7 @@
         <v>301</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C79" s="2">
         <v>431</v>
@@ -4824,10 +4824,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C80" s="2">
         <v>199</v>
@@ -4853,7 +4853,7 @@
         <v>308</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C81" s="3">
         <v>1161</v>
@@ -4879,7 +4879,7 @@
         <v>312</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C82" s="2">
         <v>749</v>
@@ -4905,7 +4905,7 @@
         <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C83" s="2">
         <v>628</v>
@@ -4931,7 +4931,7 @@
         <v>320</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C84" s="2">
         <v>685</v>
@@ -4957,7 +4957,7 @@
         <v>324</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C85" s="2">
         <v>176</v>
@@ -4983,7 +4983,7 @@
         <v>328</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C86" s="3">
         <v>1562</v>
@@ -5001,7 +5001,7 @@
         <v>1693</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
         <v>331</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C87" s="2">
         <v>956</v>
@@ -5035,7 +5035,7 @@
         <v>335</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C88" s="2">
         <v>472</v>
@@ -5061,7 +5061,7 @@
         <v>339</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C89" s="3">
         <v>1010</v>
@@ -5087,7 +5087,7 @@
         <v>343</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C90" s="3">
         <v>2056</v>
@@ -5113,7 +5113,7 @@
         <v>347</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C91" s="2">
         <v>439</v>
@@ -5139,7 +5139,7 @@
         <v>351</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C92" s="2">
         <v>202</v>
@@ -5165,7 +5165,7 @@
         <v>355</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C93" s="2">
         <v>391</v>
@@ -5183,7 +5183,7 @@
         <v>461</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>358</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C94" s="2">
         <v>305</v>
@@ -5217,7 +5217,7 @@
         <v>362</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C95" s="3">
         <v>1309</v>
@@ -5243,7 +5243,7 @@
         <v>366</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C96" s="2">
         <v>709</v>
@@ -5261,7 +5261,7 @@
         <v>774</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5269,7 +5269,7 @@
         <v>369</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C97" s="2">
         <v>354</v>
@@ -5295,7 +5295,7 @@
         <v>373</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C98" s="2">
         <v>913</v>
@@ -5321,7 +5321,7 @@
         <v>377</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C99" s="2">
         <v>887</v>
@@ -5347,7 +5347,7 @@
         <v>381</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C100" s="2">
         <v>284</v>
@@ -5373,7 +5373,7 @@
         <v>385</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C101" s="2">
         <v>574</v>
@@ -5399,7 +5399,7 @@
         <v>389</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C102" s="2">
         <v>123</v>
@@ -5425,7 +5425,7 @@
         <v>393</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C103" s="2">
         <v>847</v>
@@ -5451,7 +5451,7 @@
         <v>397</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C104" s="2">
         <v>740</v>
@@ -5477,7 +5477,7 @@
         <v>401</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C105" s="2">
         <v>647</v>
@@ -5503,7 +5503,7 @@
         <v>405</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C106" s="2">
         <v>340</v>
@@ -5529,7 +5529,7 @@
         <v>409</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C107" s="2">
         <v>372</v>
@@ -5555,7 +5555,7 @@
         <v>413</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C108" s="2">
         <v>147</v>
@@ -5581,7 +5581,7 @@
         <v>417</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C109" s="3">
         <v>1147</v>
@@ -5607,7 +5607,7 @@
         <v>421</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C110" s="2">
         <v>522</v>
@@ -5633,7 +5633,7 @@
         <v>425</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C111" s="2">
         <v>173</v>
@@ -5659,7 +5659,7 @@
         <v>429</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C112" s="2">
         <v>888</v>
@@ -5685,7 +5685,7 @@
         <v>433</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C113" s="2">
         <v>380</v>
@@ -5711,7 +5711,7 @@
         <v>437</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C114" s="2">
         <v>392</v>
@@ -5737,7 +5737,7 @@
         <v>441</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C115" s="2">
         <v>900</v>
@@ -5763,7 +5763,7 @@
         <v>445</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C116" s="2">
         <v>293</v>
@@ -5789,7 +5789,7 @@
         <v>448</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C117" s="2">
         <v>311</v>
@@ -5812,683 +5812,683 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>452</v>
+        <v>783</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C118" s="2">
         <v>138</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E118" s="2">
         <v>94</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G118" s="2">
         <v>232</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C119" s="2">
         <v>456</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E119" s="2">
         <v>189</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G119" s="2">
         <v>645</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C120" s="2">
         <v>287</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E120" s="2">
         <v>260</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G120" s="2">
         <v>547</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C121" s="2">
         <v>212</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E121" s="2">
         <v>407</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G121" s="2">
         <v>619</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C122" s="2">
         <v>354</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E122" s="2">
         <v>402</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G122" s="2">
         <v>756</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C123" s="2">
         <v>277</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E123" s="2">
         <v>584</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G123" s="2">
         <v>861</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C124" s="2">
         <v>200</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E124" s="2">
         <v>95</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G124" s="2">
         <v>295</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C125" s="2">
         <v>877</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E125" s="2">
         <v>372</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G125" s="3">
         <v>1249</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C126" s="3">
         <v>1201</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E126" s="2">
         <v>660</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G126" s="3">
         <v>1861</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C127" s="2">
         <v>638</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E127" s="2">
         <v>190</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G127" s="2">
         <v>828</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C128" s="3">
         <v>1589</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E128" s="3">
         <v>1091</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G128" s="3">
         <v>2680</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C129" s="2">
         <v>763</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E129" s="2">
         <v>249</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G129" s="3">
         <v>1012</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C130" s="2">
         <v>993</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E130" s="2">
         <v>131</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G130" s="3">
         <v>1124</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C131" s="2">
         <v>891</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E131" s="2">
         <v>324</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G131" s="3">
         <v>1215</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C132" s="2">
         <v>395</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E132" s="2">
         <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G132" s="2">
         <v>507</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C133" s="2">
         <v>463</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E133" s="2">
         <v>116</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G133" s="2">
         <v>579</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C134" s="2">
         <v>366</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E134" s="2">
         <v>313</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G134" s="2">
         <v>679</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C135" s="2">
         <v>156</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E135" s="2">
         <v>334</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G135" s="2">
         <v>490</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C136" s="2">
         <v>970</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E136" s="2">
         <v>319</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G136" s="3">
         <v>1289</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C137" s="2">
         <v>381</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E137" s="2">
         <v>160</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G137" s="2">
         <v>541</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C138" s="2">
         <v>337</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E138" s="2">
         <v>114</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G138" s="2">
         <v>451</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C139" s="3">
         <v>1105</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E139" s="2">
         <v>562</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G139" s="3">
         <v>1667</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C140" s="2">
         <v>842</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E140" s="2">
         <v>350</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G140" s="3">
         <v>1192</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C141" s="2">
         <v>847</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E141" s="2">
         <v>209</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G141" s="3">
         <v>1056</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C142" s="2">
         <v>479</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E142" s="2">
         <v>89</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G142" s="2">
         <v>568</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C143" s="2">
         <v>666</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E143" s="2">
         <v>214</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G143" s="2">
         <v>880</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>282</v>
@@ -6497,24 +6497,24 @@
         <v>1359</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E144" s="2">
         <v>436</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G144" s="3">
         <v>1795</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>282</v>
@@ -6523,24 +6523,24 @@
         <v>868</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E145" s="2">
         <v>405</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G145" s="3">
         <v>1273</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>282</v>
@@ -6549,24 +6549,24 @@
         <v>1496</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E146" s="2">
         <v>29</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G146" s="3">
         <v>1525</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>282</v>
@@ -6575,24 +6575,24 @@
         <v>499</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E147" s="2">
         <v>107</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G147" s="2">
         <v>606</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>282</v>
@@ -6601,24 +6601,24 @@
         <v>485</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E148" s="2">
         <v>499</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G148" s="2">
         <v>984</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>282</v>
@@ -6627,24 +6627,24 @@
         <v>240</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E149" s="2">
         <v>91</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G149" s="2">
         <v>331</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>282</v>
@@ -6653,24 +6653,24 @@
         <v>754</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E150" s="2">
         <v>278</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G150" s="3">
         <v>1032</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>282</v>
@@ -6679,24 +6679,24 @@
         <v>1046</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E151" s="2">
         <v>242</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G151" s="3">
         <v>1288</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>282</v>
@@ -6705,24 +6705,24 @@
         <v>344</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E152" s="2">
         <v>189</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G152" s="2">
         <v>533</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>282</v>
@@ -6731,24 +6731,24 @@
         <v>996</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E153" s="2">
         <v>329</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G153" s="3">
         <v>1325</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>282</v>
@@ -6757,24 +6757,24 @@
         <v>215</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E154" s="2">
         <v>91</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G154" s="2">
         <v>306</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>282</v>
@@ -6783,955 +6783,955 @@
         <v>573</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E155" s="2">
         <v>233</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G155" s="2">
         <v>806</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C156" s="3">
         <v>1324</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E156" s="2">
         <v>664</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G156" s="3">
         <v>1988</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C157" s="2">
         <v>441</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E157" s="2">
         <v>205</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G157" s="2">
         <v>646</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C158" s="2">
         <v>181</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E158" s="2">
         <v>55</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G158" s="2">
         <v>236</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C159" s="2">
         <v>859</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E159" s="2">
         <v>178</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G159" s="3">
         <v>1037</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C160" s="2">
         <v>771</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E160" s="2">
         <v>135</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G160" s="2">
         <v>906</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C161" s="2">
         <v>979</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E161" s="2">
         <v>198</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G161" s="3">
         <v>1177</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C162" s="2">
         <v>180</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E162" s="2">
         <v>42</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G162" s="2">
         <v>222</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C163" s="2">
         <v>465</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E163" s="2">
         <v>210</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G163" s="2">
         <v>675</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C164" s="2">
         <v>578</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E164" s="2">
         <v>110</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G164" s="2">
         <v>688</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C165" s="2">
         <v>766</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E165" s="2">
         <v>349</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G165" s="3">
         <v>1115</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C166" s="2">
         <v>547</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E166" s="2">
         <v>133</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G166" s="2">
         <v>680</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C167" s="2">
         <v>869</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E167" s="2">
         <v>311</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G167" s="3">
         <v>1180</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C168" s="2">
         <v>273</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E168" s="2">
         <v>41</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G168" s="2">
         <v>314</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C169" s="2">
         <v>542</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E169" s="2">
         <v>75</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G169" s="2">
         <v>617</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C170" s="2">
         <v>170</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E170" s="2">
         <v>79</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G170" s="2">
         <v>249</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C171" s="2">
         <v>300</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E171" s="2">
         <v>126</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G171" s="2">
         <v>426</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C172" s="2">
         <v>452</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E172" s="2">
         <v>130</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G172" s="2">
         <v>582</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C173" s="2">
         <v>333</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E173" s="2">
         <v>99</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G173" s="2">
         <v>432</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C174" s="2">
         <v>127</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E174" s="2">
         <v>72</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G174" s="2">
         <v>199</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C175" s="2">
         <v>487</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E175" s="2">
         <v>135</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G175" s="2">
         <v>622</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C176" s="3">
         <v>1202</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E176" s="2">
         <v>664</v>
       </c>
       <c r="F176" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="H176" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C177" s="2">
         <v>829</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E177" s="2">
         <v>414</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G177" s="3">
         <v>1243</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C178" s="2">
         <v>337</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E178" s="2">
         <v>193</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G178" s="2">
         <v>530</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C179" s="2">
         <v>939</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E179" s="2">
         <v>248</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G179" s="3">
         <v>1187</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C180" s="2">
         <v>165</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E180" s="2">
         <v>81</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G180" s="2">
         <v>246</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C181" s="2">
         <v>188</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E181" s="2">
         <v>71</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G181" s="2">
         <v>259</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C182" s="2">
         <v>370</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E182" s="2">
         <v>215</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G182" s="2">
         <v>585</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C183" s="2">
         <v>830</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E183" s="2">
         <v>319</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G183" s="3">
         <v>1149</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C184" s="3">
         <v>1053</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E184" s="2">
         <v>587</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G184" s="3">
         <v>1640</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C185" s="2">
         <v>344</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E185" s="2">
         <v>362</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G185" s="2">
         <v>706</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C186" s="3">
         <v>1184</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E186" s="2">
         <v>354</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G186" s="3">
         <v>1538</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C187" s="2">
         <v>438</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E187" s="2">
         <v>194</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G187" s="2">
         <v>632</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C188" s="2">
         <v>127</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E188" s="2">
         <v>81</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G188" s="2">
         <v>208</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C189" s="3">
         <v>1004</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E189" s="2">
         <v>407</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G189" s="3">
         <v>1411</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C190" s="2">
         <v>94</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E190" s="2">
         <v>13</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G190" s="2">
         <v>107</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C191" s="2">
         <v>977</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E191" s="3">
         <v>2463</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G191" s="3">
         <v>3440</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
